--- a/backend/user_auth/management/commands/new_exercises.xlsx
+++ b/backend/user_auth/management/commands/new_exercises.xlsx
@@ -90,103 +90,99 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="float" office:value="76" calcext:value-type="float">
-            <text:p>76</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Tip Toe Walking</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Beginner</text:p>
+          <table:table-cell office:value-type="float" office:value="67" calcext:value-type="float">
+            <text:p>67</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Box Squats</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Intermediate</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>All</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Torn Achilles</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Calves</text:p>
+            <text:p>Torn Meniscus, Torn ACL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Quadriceps, Glutes</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Strength</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>None</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Walk on the balls of your feet, keeping your heels off the ground. Maintain balance and control. Perform 20-30 steps, 3 sets.</text:p>
+            <text:p>nan</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Stand in front of a box-like platform. Lower yourself into a squat position, sitting back onto the platform, then return to standing.</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>All</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="float" office:value="77" calcext:value-type="float">
-            <text:p>77</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Star Excursion</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Beginner</text:p>
+          <table:table-cell office:value-type="float" office:value="68" calcext:value-type="float">
+            <text:p>68</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Single-Leg Box Squats</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Advanced</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Under 50</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Torn Meniscus, Torn ACL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Quadriceps, Glutes</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Strength</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>nan</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Stand on one leg in front of a box-like platform. Lower into a squat on one leg, sit on the platform, then return to standing on the same leg.</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>&lt; 30</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell office:value-type="float" office:value="69" calcext:value-type="float">
+            <text:p>69</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Side to Side Squats</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Intermediate</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>All</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Torn Achilles</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Calves, Glutes</text:p>
+            <text:p>Torn Meniscus, Torn ACL</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Quadriceps, Glutes, Adductors</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Strength</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>None</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Stand on one leg and reach the other leg out in multiple directions (like a star). Perform 2-3 sets on each leg.</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>All</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="float" office:value="78" calcext:value-type="float">
-            <text:p>78</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Single Leg Balance on Balance Board</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Intermediate</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>All</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Torn Achilles, Torn ACL</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Calves, Quadriceps</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Strength</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Balance Board</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              Stand on one leg on a balance board, maintaining your balance. Hold onto a surface lightly if it feels hard. 
-              <text:s/>
-              Hold the position for 20-30 seconds per leg, 3 sets.
-            </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>All</text:p>
+            <text:p>nan</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Stand with feet wide apart. Shift your weight to one side, lowering into a squat, return to the starting position, then shift to the other side and repeat.</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>&lt; 30</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro2" table:number-rows-repeated="14">
@@ -215,9 +211,9 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-08-27T12:29:22.077000000</meta:creation-date>
-    <dc:date>2024-08-28T16:24:12.341000000</dc:date>
-    <meta:editing-duration>PT3H19M59S</meta:editing-duration>
-    <meta:editing-cycles>3</meta:editing-cycles>
+    <dc:date>2024-09-03T23:21:23.194000000</dc:date>
+    <meta:editing-duration>PT3H31M4S</meta:editing-duration>
+    <meta:editing-cycles>4</meta:editing-cycles>
     <meta:generator>LibreOffice/7.6.3.2$Windows_X86_64 LibreOffice_project/29d686fea9f6705b262d369fede658f824154cc0</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="40" meta:object-count="0"/>
   </office:meta>
@@ -237,8 +233,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">10</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">2</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -502,9 +498,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-08-28">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-09-03">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="16:10:07.350000000">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="23:10:18.137000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
